--- a/Links to Past Leagues.xlsx
+++ b/Links to Past Leagues.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brenton/Documents/Fantasy Football/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brenton/Documents/GitHub/Fantasy-Football/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C9F4BB-3763-0B47-9616-EF6428EE5295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
@@ -87,12 +88,24 @@
   </si>
   <si>
     <t>https://football.fantasysports.yahoo.com/2014/f1/974997?pspid=782200906&amp;activity=football</t>
+  </si>
+  <si>
+    <t>https://football.fantasysports.yahoo.com/2024/f1/88768</t>
+  </si>
+  <si>
+    <t>https://football.fantasysports.yahoo.com/2022/f1/530580</t>
+  </si>
+  <si>
+    <t>https://football.fantasysports.yahoo.com/2021/f1/253553</t>
+  </si>
+  <si>
+    <t>https://football.fantasysports.yahoo.com/2023/f1/153568</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -133,6 +146,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,8 +573,35 @@
       <c r="A11">
         <v>2021</v>
       </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
       <c r="G11">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
